--- a/teammember.xlsx
+++ b/teammember.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="18">
   <si>
     <t>Imię</t>
   </si>
@@ -38,13 +38,34 @@
     <t>Drużyna</t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>45gda</t>
+  </si>
+  <si>
+    <t>pawel@gmail.com</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>67GH</t>
+  </si>
+  <si>
+    <t>pawelr@gmail.com</t>
+  </si>
+  <si>
     <t>tes</t>
   </si>
   <si>
     <t>12dfa</t>
   </si>
   <si>
-    <t>test2</t>
+    <t>damian123@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -96,7 +117,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -108,8 +129,8 @@
     <col min="4" max="4" width="6.91015625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="5.52734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="14.9296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="6.19921875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="8.4609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="6.66796875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="21.93359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -160,28 +181,160 @@
       <c r="G2" t="s">
         <v>9</v>
       </c>
+      <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/teammember.xlsx
+++ b/teammember.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
   <si>
     <t>Imię</t>
   </si>
@@ -41,31 +41,43 @@
     <t>test</t>
   </si>
   <si>
-    <t>45gda</t>
-  </si>
-  <si>
-    <t>pawel@gmail.com</t>
+    <t>16GDH</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>asdsad</t>
+  </si>
+  <si>
+    <t>asdsadas</t>
+  </si>
+  <si>
+    <t>asdsadsa</t>
+  </si>
+  <si>
+    <t>17DSH</t>
+  </si>
+  <si>
+    <t>teest</t>
+  </si>
+  <si>
+    <t>69GHUDPA</t>
+  </si>
+  <si>
+    <t>pawel.radawiec@gmail.com</t>
   </si>
   <si>
     <t>test2</t>
   </si>
   <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>67GH</t>
-  </si>
-  <si>
-    <t>pawelr@gmail.com</t>
-  </si>
-  <si>
-    <t>tes</t>
-  </si>
-  <si>
-    <t>12dfa</t>
-  </si>
-  <si>
-    <t>damian123@gmail.com</t>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>12GF</t>
+  </si>
+  <si>
+    <t>damian@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -117,20 +129,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="5.52734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="7.24609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="9.53515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="5.8203125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="6.91015625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="5.52734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.9296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="6.66796875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="21.93359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.19140625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.19140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="7.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.93359375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="10.953125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="25.44140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -185,22 +197,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -227,114 +239,86 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/teammember.xlsx
+++ b/teammember.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Imię</t>
   </si>
@@ -38,46 +38,16 @@
     <t>Drużyna</t>
   </si>
   <si>
+    <t>qwerty2</t>
+  </si>
+  <si>
+    <t>12GH</t>
+  </si>
+  <si>
     <t>test</t>
   </si>
   <si>
-    <t>16GDH</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>asdsad</t>
-  </si>
-  <si>
-    <t>asdsadas</t>
-  </si>
-  <si>
-    <t>asdsadsa</t>
-  </si>
-  <si>
-    <t>17DSH</t>
-  </si>
-  <si>
-    <t>teest</t>
-  </si>
-  <si>
-    <t>69GHUDPA</t>
-  </si>
-  <si>
-    <t>pawel.radawiec@gmail.com</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>12GF</t>
-  </si>
-  <si>
-    <t>damian@gmail.com</t>
+    <t>test-zmiana</t>
   </si>
 </sst>
 </file>
@@ -129,20 +99,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="7.24609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.18359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="9.53515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.19140625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.19140625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.24609375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.93359375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="10.953125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="25.44140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.18359375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.18359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.88671875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.9296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="6.03125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="8.4609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -193,23 +163,22 @@
       <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -217,109 +186,6 @@
       <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="H3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
